--- a/datasets/P_Data_Extract_From_World_Development_Indicators_Metadata.xlsx
+++ b/datasets/P_Data_Extract_From_World_Development_Indicators_Metadata.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="SpreadsheetGear 5.1.1.178"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\economic-analysis\datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B881B434-95C0-42B5-89BA-4E5879A7E710}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18072" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Series - Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="Country - Metadata" sheetId="2" r:id="rId2"/>
     <sheet name="Country-Series - Metadata" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="40001"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Series - Metadata'!$A$1:$P$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1695,9 +1704,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1706,122 +1714,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1847,17 +1741,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C19FCB2D-D292-4401-9557-E2CA49E14D5A}" name="Table2" displayName="Table2" ref="A1:P76" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:P76" xr:uid="{103A9562-A06A-4546-BBA5-F020DFC18EA4}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{7634A8D0-28D5-4503-BA0D-98C4BE43BADF}" name="Code"/>
+    <tableColumn id="2" xr3:uid="{844DB096-320E-4AFF-8D0F-7D4C9D923F84}" name="License Type"/>
+    <tableColumn id="3" xr3:uid="{D28D5C8D-FDF7-4D5E-BE57-89F1949017C9}" name="Indicator Name"/>
+    <tableColumn id="4" xr3:uid="{8784B778-153C-49BA-9188-7926A70C0E46}" name="Short definition"/>
+    <tableColumn id="5" xr3:uid="{2ED9DE87-0C6F-4C46-89CC-D0D541EC18B3}" name="Long definition"/>
+    <tableColumn id="6" xr3:uid="{13CFB66E-495B-4CF1-A4F9-A89AFA3EB850}" name="Source"/>
+    <tableColumn id="7" xr3:uid="{0A5D4D6D-8734-4BC4-BFB5-3219E04159FC}" name="Topic"/>
+    <tableColumn id="8" xr3:uid="{962D1FCD-0D45-455B-9D66-28A62641C3F2}" name="Periodicity"/>
+    <tableColumn id="9" xr3:uid="{C824BB88-5B7B-4F72-87DE-14568643FE5B}" name="Base Period"/>
+    <tableColumn id="10" xr3:uid="{948CA09F-87F8-4617-B123-019658A6671F}" name="Aggregation method"/>
+    <tableColumn id="11" xr3:uid="{114DFFB2-DD9E-463F-B774-B00F7A865BFB}" name="Statistical concept and methodology" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{356AA323-CEB2-44F3-B8BD-4D372A9DF46F}" name="Development relevance"/>
+    <tableColumn id="13" xr3:uid="{DA0E0FC8-C994-4D2F-AD92-F029A4C01360}" name="Limitations and exceptions"/>
+    <tableColumn id="14" xr3:uid="{C353A422-D346-494C-A01C-249538355D17}" name="General comments"/>
+    <tableColumn id="15" xr3:uid="{B545622B-47B6-4448-A283-BDECE772BD72}" name="Notes from original source"/>
+    <tableColumn id="16" xr3:uid="{2168960A-C71B-48A6-BF38-6C1E7AFC74D6}" name="License URL"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2144,194 +2092,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="181.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="52.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row>
-      <c t="s">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>139</v>
       </c>
-      <c t="s">
+      <c r="B1" s="3" t="s">
         <v>405</v>
       </c>
-      <c t="s">
+      <c r="C1" s="3" t="s">
         <v>232</v>
       </c>
-      <c t="s">
+      <c r="D1" s="3" t="s">
         <v>291</v>
       </c>
-      <c t="s">
+      <c r="E1" s="3" t="s">
         <v>350</v>
       </c>
-      <c t="s">
+      <c r="F1" s="3" t="s">
         <v>272</v>
       </c>
-      <c t="s">
+      <c r="G1" s="3" t="s">
         <v>38</v>
       </c>
-      <c t="s">
+      <c r="H1" s="3" t="s">
         <v>144</v>
       </c>
-      <c t="s">
+      <c r="I1" s="3" t="s">
         <v>42</v>
       </c>
-      <c t="s">
+      <c r="J1" s="3" t="s">
         <v>522</v>
       </c>
-      <c t="s">
+      <c r="K1" s="3" t="s">
         <v>263</v>
       </c>
-      <c t="s">
+      <c r="L1" s="3" t="s">
         <v>538</v>
       </c>
-      <c t="s">
+      <c r="M1" s="3" t="s">
         <v>318</v>
       </c>
-      <c t="s">
+      <c r="N1" s="3" t="s">
         <v>230</v>
       </c>
-      <c t="s">
+      <c r="O1" s="3" t="s">
         <v>6</v>
       </c>
-      <c t="s">
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>413</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C2" t="s">
         <v>72</v>
       </c>
       <c r="E2" t="s">
         <v>493</v>
       </c>
-      <c t="s">
+      <c r="F2" t="s">
         <v>330</v>
       </c>
-      <c t="s">
+      <c r="G2" t="s">
         <v>311</v>
       </c>
-      <c t="s">
+      <c r="H2" t="s">
         <v>176</v>
       </c>
       <c r="J2" t="s">
         <v>185</v>
       </c>
-      <c t="s">
+      <c r="K2" t="s">
         <v>319</v>
       </c>
-      <c t="s">
+      <c r="L2" t="s">
         <v>70</v>
       </c>
-      <c t="s">
+      <c r="M2" t="s">
         <v>473</v>
       </c>
       <c r="P2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="3" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>96</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C3" t="s">
         <v>536</v>
       </c>
       <c r="E3" t="s">
         <v>124</v>
       </c>
-      <c t="s">
+      <c r="F3" t="s">
         <v>446</v>
       </c>
-      <c t="s">
+      <c r="G3" t="s">
         <v>184</v>
       </c>
-      <c t="s">
+      <c r="H3" t="s">
         <v>176</v>
       </c>
       <c r="J3" t="s">
         <v>185</v>
       </c>
-      <c s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>212</v>
       </c>
-      <c s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>261</v>
       </c>
-      <c s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>254</v>
       </c>
       <c r="P3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>332</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C4" t="s">
         <v>165</v>
       </c>
       <c r="E4" t="s">
         <v>391</v>
       </c>
-      <c t="s">
+      <c r="F4" t="s">
         <v>390</v>
       </c>
-      <c t="s">
+      <c r="G4" t="s">
         <v>398</v>
       </c>
-      <c t="s">
+      <c r="H4" t="s">
         <v>176</v>
       </c>
       <c r="K4" t="s">
         <v>388</v>
       </c>
-      <c t="s">
+      <c r="L4" t="s">
         <v>427</v>
       </c>
-      <c t="s">
+      <c r="M4" t="s">
         <v>449</v>
       </c>
       <c r="P4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C5" t="s">
         <v>528</v>
       </c>
       <c r="E5" t="s">
         <v>360</v>
       </c>
-      <c t="s">
+      <c r="F5" t="s">
         <v>269</v>
       </c>
-      <c t="s">
+      <c r="G5" t="s">
         <v>398</v>
       </c>
-      <c t="s">
+      <c r="H5" t="s">
         <v>176</v>
       </c>
       <c r="J5" t="s">
@@ -2341,26 +2304,26 @@
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="6" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>82</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C6" t="s">
         <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>392</v>
       </c>
-      <c t="s">
+      <c r="F6" t="s">
         <v>428</v>
       </c>
-      <c t="s">
+      <c r="G6" t="s">
         <v>398</v>
       </c>
-      <c t="s">
+      <c r="H6" t="s">
         <v>176</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -2373,450 +2336,450 @@
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>501</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C7" t="s">
         <v>357</v>
       </c>
       <c r="E7" t="s">
         <v>416</v>
       </c>
-      <c t="s">
+      <c r="F7" t="s">
         <v>269</v>
       </c>
-      <c t="s">
+      <c r="G7" t="s">
         <v>398</v>
       </c>
-      <c t="s">
+      <c r="H7" t="s">
         <v>176</v>
       </c>
       <c r="J7" t="s">
         <v>185</v>
       </c>
-      <c t="s">
+      <c r="K7" t="s">
         <v>189</v>
       </c>
-      <c t="s">
+      <c r="L7" t="s">
         <v>498</v>
       </c>
-      <c t="s">
+      <c r="M7" t="s">
         <v>35</v>
       </c>
       <c r="P7" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>93</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="s">
         <v>213</v>
       </c>
-      <c t="s">
+      <c r="F8" t="s">
         <v>269</v>
       </c>
-      <c t="s">
+      <c r="G8" t="s">
         <v>398</v>
       </c>
-      <c t="s">
+      <c r="H8" t="s">
         <v>176</v>
       </c>
       <c r="J8" t="s">
         <v>185</v>
       </c>
-      <c t="s">
+      <c r="K8" t="s">
         <v>320</v>
       </c>
-      <c t="s">
+      <c r="L8" t="s">
         <v>125</v>
       </c>
-      <c t="s">
+      <c r="M8" t="s">
         <v>60</v>
       </c>
       <c r="P8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>496</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C9" t="s">
         <v>372</v>
       </c>
       <c r="E9" t="s">
         <v>74</v>
       </c>
-      <c t="s">
+      <c r="F9" t="s">
         <v>269</v>
       </c>
-      <c t="s">
+      <c r="G9" t="s">
         <v>398</v>
       </c>
-      <c t="s">
+      <c r="H9" t="s">
         <v>176</v>
       </c>
       <c r="J9" t="s">
         <v>185</v>
       </c>
-      <c t="s">
+      <c r="K9" t="s">
         <v>210</v>
       </c>
-      <c t="s">
+      <c r="L9" t="s">
         <v>125</v>
       </c>
-      <c t="s">
+      <c r="M9" t="s">
         <v>60</v>
       </c>
       <c r="P9" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>403</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B10" t="s">
+        <v>503</v>
+      </c>
+      <c r="C10" t="s">
         <v>114</v>
       </c>
       <c r="E10" t="s">
         <v>135</v>
       </c>
-      <c t="s">
+      <c r="F10" t="s">
         <v>200</v>
       </c>
-      <c t="s">
+      <c r="G10" t="s">
         <v>447</v>
       </c>
-      <c t="s">
+      <c r="H10" t="s">
         <v>176</v>
       </c>
       <c r="J10" t="s">
         <v>185</v>
       </c>
-      <c t="s">
+      <c r="K10" t="s">
         <v>435</v>
       </c>
-      <c t="s">
+      <c r="L10" t="s">
         <v>323</v>
       </c>
       <c r="O10" t="s">
         <v>541</v>
       </c>
-      <c t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row>
-      <c t="s">
+      <c r="P10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>127</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C11" t="s">
         <v>259</v>
       </c>
       <c r="E11" t="s">
         <v>285</v>
       </c>
-      <c t="s">
+      <c r="F11" t="s">
         <v>200</v>
       </c>
-      <c t="s">
+      <c r="G11" t="s">
         <v>447</v>
       </c>
-      <c t="s">
+      <c r="H11" t="s">
         <v>176</v>
       </c>
       <c r="J11" t="s">
         <v>185</v>
       </c>
-      <c t="s">
+      <c r="K11" t="s">
         <v>435</v>
       </c>
-      <c t="s">
+      <c r="L11" t="s">
         <v>323</v>
       </c>
       <c r="O11" t="s">
         <v>541</v>
       </c>
-      <c t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row>
-      <c t="s">
+      <c r="P11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>484</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B12" t="s">
+        <v>503</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
         <v>423</v>
       </c>
-      <c t="s">
+      <c r="F12" t="s">
         <v>200</v>
       </c>
-      <c t="s">
+      <c r="G12" t="s">
         <v>447</v>
       </c>
-      <c t="s">
+      <c r="H12" t="s">
         <v>176</v>
       </c>
       <c r="J12" t="s">
         <v>185</v>
       </c>
-      <c t="s">
+      <c r="K12" t="s">
         <v>435</v>
       </c>
-      <c t="s">
+      <c r="L12" t="s">
         <v>323</v>
       </c>
       <c r="O12" t="s">
         <v>541</v>
       </c>
-      <c t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row>
-      <c t="s">
+      <c r="P12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>226</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B13" t="s">
+        <v>503</v>
+      </c>
+      <c r="C13" t="s">
         <v>429</v>
       </c>
       <c r="E13" t="s">
         <v>214</v>
       </c>
-      <c t="s">
+      <c r="F13" t="s">
         <v>200</v>
       </c>
-      <c t="s">
+      <c r="G13" t="s">
         <v>447</v>
       </c>
-      <c t="s">
+      <c r="H13" t="s">
         <v>176</v>
       </c>
       <c r="J13" t="s">
         <v>185</v>
       </c>
-      <c t="s">
+      <c r="K13" t="s">
         <v>435</v>
       </c>
-      <c t="s">
+      <c r="L13" t="s">
         <v>323</v>
       </c>
       <c r="O13" t="s">
         <v>541</v>
       </c>
-      <c t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row>
-      <c t="s">
+      <c r="P13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>151</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B14" t="s">
+        <v>503</v>
+      </c>
+      <c r="C14" t="s">
         <v>178</v>
       </c>
       <c r="E14" t="s">
         <v>229</v>
       </c>
-      <c t="s">
+      <c r="F14" t="s">
         <v>200</v>
       </c>
-      <c t="s">
+      <c r="G14" t="s">
         <v>447</v>
       </c>
-      <c t="s">
+      <c r="H14" t="s">
         <v>176</v>
       </c>
       <c r="J14" t="s">
         <v>185</v>
       </c>
-      <c t="s">
+      <c r="K14" t="s">
         <v>476</v>
       </c>
-      <c t="s">
+      <c r="L14" t="s">
         <v>323</v>
       </c>
       <c r="O14" t="s">
         <v>541</v>
       </c>
-      <c t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row>
-      <c t="s">
+      <c r="P14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>109</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B15" t="s">
+        <v>503</v>
+      </c>
+      <c r="C15" t="s">
         <v>410</v>
       </c>
       <c r="E15" t="s">
         <v>384</v>
       </c>
-      <c t="s">
+      <c r="F15" t="s">
         <v>200</v>
       </c>
-      <c t="s">
+      <c r="G15" t="s">
         <v>447</v>
       </c>
-      <c t="s">
+      <c r="H15" t="s">
         <v>176</v>
       </c>
       <c r="J15" t="s">
         <v>185</v>
       </c>
-      <c t="s">
+      <c r="K15" t="s">
         <v>435</v>
       </c>
-      <c t="s">
+      <c r="L15" t="s">
         <v>323</v>
       </c>
       <c r="O15" t="s">
         <v>541</v>
       </c>
-      <c t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row>
-      <c t="s">
+      <c r="P15" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>494</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B16" t="s">
+        <v>503</v>
+      </c>
+      <c r="C16" t="s">
         <v>278</v>
       </c>
       <c r="E16" t="s">
         <v>520</v>
       </c>
-      <c t="s">
+      <c r="F16" t="s">
         <v>200</v>
       </c>
-      <c t="s">
+      <c r="G16" t="s">
         <v>447</v>
       </c>
-      <c t="s">
+      <c r="H16" t="s">
         <v>176</v>
       </c>
       <c r="J16" t="s">
         <v>185</v>
       </c>
-      <c t="s">
+      <c r="K16" t="s">
         <v>435</v>
       </c>
-      <c t="s">
+      <c r="L16" t="s">
         <v>323</v>
       </c>
       <c r="O16" t="s">
         <v>541</v>
       </c>
-      <c t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row>
-      <c t="s">
+      <c r="P16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>418</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B17" t="s">
+        <v>503</v>
+      </c>
+      <c r="C17" t="s">
         <v>464</v>
       </c>
       <c r="E17" t="s">
         <v>540</v>
       </c>
-      <c t="s">
+      <c r="F17" t="s">
         <v>200</v>
       </c>
-      <c t="s">
+      <c r="G17" t="s">
         <v>447</v>
       </c>
-      <c t="s">
+      <c r="H17" t="s">
         <v>176</v>
       </c>
       <c r="J17" t="s">
         <v>185</v>
       </c>
-      <c t="s">
+      <c r="K17" t="s">
         <v>476</v>
       </c>
-      <c t="s">
+      <c r="L17" t="s">
         <v>323</v>
       </c>
       <c r="O17" t="s">
         <v>541</v>
       </c>
-      <c t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row>
-      <c t="s">
+      <c r="P17" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B18" t="s">
+        <v>503</v>
+      </c>
+      <c r="C18" t="s">
         <v>537</v>
       </c>
       <c r="E18" t="s">
         <v>312</v>
       </c>
-      <c t="s">
+      <c r="F18" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G18" t="s">
         <v>171</v>
       </c>
-      <c t="s">
+      <c r="H18" t="s">
         <v>176</v>
       </c>
       <c r="J18" t="s">
         <v>185</v>
       </c>
-      <c t="s">
+      <c r="K18" t="s">
         <v>468</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -2826,26 +2789,26 @@
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>385</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B19" t="s">
+        <v>503</v>
+      </c>
+      <c r="C19" t="s">
         <v>474</v>
       </c>
       <c r="E19" t="s">
         <v>253</v>
       </c>
-      <c t="s">
+      <c r="F19" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G19" t="s">
         <v>373</v>
       </c>
-      <c t="s">
+      <c r="H19" t="s">
         <v>176</v>
       </c>
       <c r="J19" t="s">
@@ -2855,128 +2818,128 @@
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="20" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>296</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B20" t="s">
+        <v>503</v>
+      </c>
+      <c r="C20" t="s">
         <v>159</v>
       </c>
       <c r="E20" t="s">
         <v>455</v>
       </c>
-      <c t="s">
+      <c r="F20" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G20" t="s">
         <v>483</v>
       </c>
-      <c t="s">
-        <v>176</v>
-      </c>
-      <c>
+      <c r="H20" t="s">
+        <v>176</v>
+      </c>
+      <c r="I20">
         <v>2015</v>
       </c>
-      <c t="s">
+      <c r="J20" t="s">
         <v>57</v>
       </c>
-      <c t="s">
+      <c r="K20" t="s">
         <v>468</v>
       </c>
-      <c t="s">
+      <c r="L20" t="s">
         <v>32</v>
       </c>
-      <c s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>56</v>
       </c>
       <c r="P20" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>126</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B21" t="s">
+        <v>503</v>
+      </c>
+      <c r="C21" t="s">
         <v>223</v>
       </c>
       <c r="E21" t="s">
         <v>431</v>
       </c>
-      <c t="s">
+      <c r="F21" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G21" t="s">
         <v>69</v>
       </c>
-      <c t="s">
-        <v>176</v>
-      </c>
-      <c t="s">
+      <c r="H21" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" t="s">
         <v>487</v>
       </c>
       <c r="P21" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>175</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B22" t="s">
+        <v>503</v>
+      </c>
+      <c r="C22" t="s">
         <v>45</v>
       </c>
       <c r="E22" t="s">
         <v>258</v>
       </c>
-      <c t="s">
+      <c r="F22" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G22" t="s">
         <v>375</v>
       </c>
-      <c t="s">
+      <c r="H22" t="s">
         <v>176</v>
       </c>
       <c r="P22" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="23" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>340</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B23" t="s">
+        <v>503</v>
+      </c>
+      <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
         <v>417</v>
       </c>
-      <c t="s">
+      <c r="F23" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G23" t="s">
         <v>488</v>
       </c>
-      <c t="s">
+      <c r="H23" t="s">
         <v>176</v>
       </c>
       <c r="J23" t="s">
         <v>57</v>
       </c>
-      <c t="s">
+      <c r="K23" t="s">
         <v>468</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -2986,55 +2949,55 @@
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>440</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B24" t="s">
+        <v>503</v>
+      </c>
+      <c r="C24" t="s">
         <v>515</v>
       </c>
       <c r="E24" t="s">
         <v>157</v>
       </c>
-      <c t="s">
+      <c r="F24" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G24" t="s">
         <v>317</v>
       </c>
-      <c t="s">
-        <v>176</v>
-      </c>
-      <c t="s">
+      <c r="H24" t="s">
+        <v>176</v>
+      </c>
+      <c r="I24" t="s">
         <v>487</v>
       </c>
       <c r="P24" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B25" t="s">
+        <v>503</v>
+      </c>
+      <c r="C25" t="s">
         <v>244</v>
       </c>
       <c r="E25" t="s">
         <v>239</v>
       </c>
-      <c t="s">
+      <c r="F25" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G25" t="s">
         <v>171</v>
       </c>
-      <c t="s">
+      <c r="H25" t="s">
         <v>176</v>
       </c>
       <c r="J25" t="s">
@@ -3044,52 +3007,52 @@
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>512</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B26" t="s">
+        <v>503</v>
+      </c>
+      <c r="C26" t="s">
         <v>222</v>
       </c>
       <c r="E26" t="s">
         <v>525</v>
       </c>
-      <c t="s">
+      <c r="F26" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G26" t="s">
         <v>180</v>
       </c>
-      <c t="s">
+      <c r="H26" t="s">
         <v>176</v>
       </c>
       <c r="P26" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>336</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B27" t="s">
+        <v>503</v>
+      </c>
+      <c r="C27" t="s">
         <v>186</v>
       </c>
       <c r="E27" t="s">
         <v>233</v>
       </c>
-      <c t="s">
+      <c r="F27" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G27" t="s">
         <v>518</v>
       </c>
-      <c t="s">
+      <c r="H27" t="s">
         <v>176</v>
       </c>
       <c r="J27" t="s">
@@ -3099,26 +3062,26 @@
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>302</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B28" t="s">
+        <v>503</v>
+      </c>
+      <c r="C28" t="s">
         <v>183</v>
       </c>
       <c r="E28" t="s">
         <v>61</v>
       </c>
-      <c t="s">
+      <c r="F28" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G28" t="s">
         <v>171</v>
       </c>
-      <c t="s">
+      <c r="H28" t="s">
         <v>176</v>
       </c>
       <c r="J28" t="s">
@@ -3128,26 +3091,26 @@
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>113</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C29" t="s">
         <v>53</v>
       </c>
       <c r="E29" t="s">
         <v>81</v>
       </c>
-      <c t="s">
+      <c r="F29" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G29" t="s">
         <v>373</v>
       </c>
-      <c t="s">
+      <c r="H29" t="s">
         <v>176</v>
       </c>
       <c r="J29" t="s">
@@ -3157,113 +3120,113 @@
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B30" t="s">
+        <v>503</v>
+      </c>
+      <c r="C30" t="s">
         <v>479</v>
       </c>
       <c r="E30" t="s">
         <v>55</v>
       </c>
-      <c t="s">
+      <c r="F30" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G30" t="s">
         <v>483</v>
       </c>
-      <c t="s">
-        <v>176</v>
-      </c>
-      <c>
+      <c r="H30" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30">
         <v>2015</v>
       </c>
-      <c t="s">
+      <c r="J30" t="s">
         <v>57</v>
       </c>
       <c r="P30" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>192</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B31" t="s">
+        <v>503</v>
+      </c>
+      <c r="C31" t="s">
         <v>136</v>
       </c>
       <c r="E31" t="s">
         <v>172</v>
       </c>
-      <c t="s">
+      <c r="F31" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G31" t="s">
         <v>69</v>
       </c>
-      <c t="s">
-        <v>176</v>
-      </c>
-      <c t="s">
+      <c r="H31" t="s">
+        <v>176</v>
+      </c>
+      <c r="I31" t="s">
         <v>487</v>
       </c>
       <c r="P31" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>243</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C32" t="s">
         <v>462</v>
       </c>
       <c r="E32" t="s">
         <v>329</v>
       </c>
-      <c t="s">
+      <c r="F32" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G32" t="s">
         <v>375</v>
       </c>
-      <c t="s">
+      <c r="H32" t="s">
         <v>176</v>
       </c>
       <c r="P32" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>64</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B33" t="s">
+        <v>503</v>
+      </c>
+      <c r="C33" t="s">
         <v>83</v>
       </c>
       <c r="E33" t="s">
         <v>448</v>
       </c>
-      <c t="s">
+      <c r="F33" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G33" t="s">
         <v>488</v>
       </c>
-      <c t="s">
+      <c r="H33" t="s">
         <v>176</v>
       </c>
       <c r="J33" t="s">
@@ -3273,26 +3236,26 @@
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>430</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B34" t="s">
+        <v>503</v>
+      </c>
+      <c r="C34" t="s">
         <v>301</v>
       </c>
       <c r="E34" t="s">
         <v>378</v>
       </c>
-      <c t="s">
+      <c r="F34" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G34" t="s">
         <v>171</v>
       </c>
-      <c t="s">
+      <c r="H34" t="s">
         <v>176</v>
       </c>
       <c r="J34" t="s">
@@ -3302,279 +3265,279 @@
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>380</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B35" t="s">
+        <v>503</v>
+      </c>
+      <c r="C35" t="s">
         <v>48</v>
       </c>
       <c r="E35" t="s">
         <v>378</v>
       </c>
-      <c t="s">
+      <c r="F35" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G35" t="s">
         <v>375</v>
       </c>
-      <c t="s">
+      <c r="H35" t="s">
         <v>176</v>
       </c>
       <c r="P35" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="36" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>346</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B36" t="s">
+        <v>503</v>
+      </c>
+      <c r="C36" t="s">
         <v>90</v>
       </c>
       <c r="E36" t="s">
         <v>231</v>
       </c>
-      <c t="s">
+      <c r="F36" t="s">
         <v>308</v>
       </c>
-      <c t="s">
+      <c r="G36" t="s">
         <v>526</v>
       </c>
-      <c t="s">
+      <c r="H36" t="s">
         <v>176</v>
       </c>
       <c r="J36" t="s">
         <v>185</v>
       </c>
-      <c s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>73</v>
       </c>
-      <c t="s">
+      <c r="L36" t="s">
         <v>334</v>
       </c>
-      <c t="s">
+      <c r="M36" t="s">
         <v>143</v>
       </c>
       <c r="P36" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="37" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>158</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B37" t="s">
+        <v>503</v>
+      </c>
+      <c r="C37" t="s">
         <v>337</v>
       </c>
       <c r="E37" t="s">
         <v>231</v>
       </c>
-      <c t="s">
+      <c r="F37" t="s">
         <v>308</v>
       </c>
-      <c t="s">
+      <c r="G37" t="s">
         <v>526</v>
       </c>
-      <c t="s">
+      <c r="H37" t="s">
         <v>176</v>
       </c>
       <c r="J37" t="s">
         <v>185</v>
       </c>
-      <c s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>73</v>
       </c>
-      <c t="s">
+      <c r="L37" t="s">
         <v>334</v>
       </c>
-      <c t="s">
+      <c r="M37" t="s">
         <v>143</v>
       </c>
       <c r="P37" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="38" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>393</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B38" t="s">
+        <v>503</v>
+      </c>
+      <c r="C38" t="s">
         <v>426</v>
       </c>
       <c r="E38" t="s">
         <v>231</v>
       </c>
-      <c t="s">
+      <c r="F38" t="s">
         <v>308</v>
       </c>
-      <c t="s">
+      <c r="G38" t="s">
         <v>526</v>
       </c>
-      <c t="s">
+      <c r="H38" t="s">
         <v>176</v>
       </c>
       <c r="J38" t="s">
         <v>185</v>
       </c>
-      <c s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>73</v>
       </c>
-      <c t="s">
+      <c r="L38" t="s">
         <v>334</v>
       </c>
-      <c t="s">
+      <c r="M38" t="s">
         <v>143</v>
       </c>
       <c r="P38" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>361</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B39" t="s">
+        <v>503</v>
+      </c>
+      <c r="C39" t="s">
         <v>195</v>
       </c>
       <c r="E39" t="s">
         <v>451</v>
       </c>
-      <c t="s">
+      <c r="F39" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G39" t="s">
         <v>171</v>
       </c>
-      <c t="s">
+      <c r="H39" t="s">
         <v>176</v>
       </c>
       <c r="P39" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>76</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B40" t="s">
+        <v>503</v>
+      </c>
+      <c r="C40" t="s">
         <v>539</v>
       </c>
       <c r="E40" t="s">
         <v>197</v>
       </c>
-      <c t="s">
+      <c r="F40" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G40" t="s">
         <v>483</v>
       </c>
-      <c t="s">
-        <v>176</v>
-      </c>
-      <c>
+      <c r="H40" t="s">
+        <v>176</v>
+      </c>
+      <c r="I40">
         <v>2015</v>
       </c>
-      <c t="s">
+      <c r="J40" t="s">
         <v>57</v>
       </c>
       <c r="P40" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>265</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B41" t="s">
+        <v>503</v>
+      </c>
+      <c r="C41" t="s">
         <v>181</v>
       </c>
       <c r="E41" t="s">
         <v>284</v>
       </c>
-      <c t="s">
+      <c r="F41" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G41" t="s">
         <v>69</v>
       </c>
-      <c t="s">
-        <v>176</v>
-      </c>
-      <c t="s">
+      <c r="H41" t="s">
+        <v>176</v>
+      </c>
+      <c r="I41" t="s">
         <v>487</v>
       </c>
       <c r="P41" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>315</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B42" t="s">
+        <v>503</v>
+      </c>
+      <c r="C42" t="s">
         <v>67</v>
       </c>
       <c r="E42" t="s">
         <v>170</v>
       </c>
-      <c t="s">
+      <c r="F42" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G42" t="s">
         <v>375</v>
       </c>
-      <c t="s">
+      <c r="H42" t="s">
         <v>176</v>
       </c>
       <c r="P42" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>120</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B43" t="s">
+        <v>503</v>
+      </c>
+      <c r="C43" t="s">
         <v>30</v>
       </c>
       <c r="E43" t="s">
         <v>194</v>
       </c>
-      <c t="s">
+      <c r="F43" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G43" t="s">
         <v>488</v>
       </c>
-      <c t="s">
+      <c r="H43" t="s">
         <v>176</v>
       </c>
       <c r="J43" t="s">
@@ -3584,84 +3547,84 @@
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>13</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B44" t="s">
+        <v>503</v>
+      </c>
+      <c r="C44" t="s">
         <v>271</v>
       </c>
       <c r="E44" t="s">
         <v>451</v>
       </c>
-      <c t="s">
+      <c r="F44" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G44" t="s">
         <v>171</v>
       </c>
-      <c t="s">
+      <c r="H44" t="s">
         <v>176</v>
       </c>
       <c r="P44" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B45" t="s">
+        <v>503</v>
+      </c>
+      <c r="C45" t="s">
         <v>266</v>
       </c>
       <c r="E45" t="s">
         <v>220</v>
       </c>
-      <c t="s">
+      <c r="F45" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G45" t="s">
         <v>171</v>
       </c>
-      <c t="s">
+      <c r="H45" t="s">
         <v>176</v>
       </c>
       <c r="J45" t="s">
         <v>185</v>
       </c>
-      <c t="s">
+      <c r="K45" t="s">
         <v>327</v>
       </c>
       <c r="P45" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>333</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B46" t="s">
+        <v>503</v>
+      </c>
+      <c r="C46" t="s">
         <v>116</v>
       </c>
       <c r="E46" t="s">
         <v>220</v>
       </c>
-      <c t="s">
+      <c r="F46" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G46" t="s">
         <v>171</v>
       </c>
-      <c t="s">
+      <c r="H46" t="s">
         <v>176</v>
       </c>
       <c r="J46" t="s">
@@ -3671,52 +3634,52 @@
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>204</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B47" t="s">
+        <v>503</v>
+      </c>
+      <c r="C47" t="s">
         <v>128</v>
       </c>
       <c r="E47" t="s">
         <v>227</v>
       </c>
-      <c t="s">
+      <c r="F47" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G47" t="s">
         <v>180</v>
       </c>
-      <c t="s">
+      <c r="H47" t="s">
         <v>176</v>
       </c>
       <c r="P47" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>367</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B48" t="s">
+        <v>503</v>
+      </c>
+      <c r="C48" t="s">
         <v>97</v>
       </c>
       <c r="E48" t="s">
         <v>146</v>
       </c>
-      <c t="s">
+      <c r="F48" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G48" t="s">
         <v>518</v>
       </c>
-      <c t="s">
+      <c r="H48" t="s">
         <v>176</v>
       </c>
       <c r="K48" t="s">
@@ -3726,113 +3689,113 @@
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>234</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B49" t="s">
+        <v>503</v>
+      </c>
+      <c r="C49" t="s">
         <v>521</v>
       </c>
       <c r="E49" t="s">
         <v>443</v>
       </c>
-      <c t="s">
+      <c r="F49" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G49" t="s">
         <v>256</v>
       </c>
-      <c t="s">
-        <v>176</v>
-      </c>
-      <c>
+      <c r="H49" t="s">
+        <v>176</v>
+      </c>
+      <c r="I49">
         <v>2015</v>
       </c>
-      <c t="s">
+      <c r="J49" t="s">
         <v>57</v>
       </c>
       <c r="P49" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>425</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B50" t="s">
+        <v>503</v>
+      </c>
+      <c r="C50" t="s">
         <v>21</v>
       </c>
       <c r="E50" t="s">
         <v>209</v>
       </c>
-      <c t="s">
+      <c r="F50" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G50" t="s">
         <v>129</v>
       </c>
-      <c t="s">
-        <v>176</v>
-      </c>
-      <c t="s">
+      <c r="H50" t="s">
+        <v>176</v>
+      </c>
+      <c r="I50" t="s">
         <v>487</v>
       </c>
       <c r="P50" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>472</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B51" t="s">
+        <v>503</v>
+      </c>
+      <c r="C51" t="s">
         <v>379</v>
       </c>
       <c r="E51" t="s">
         <v>249</v>
       </c>
-      <c t="s">
+      <c r="F51" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G51" t="s">
         <v>180</v>
       </c>
-      <c t="s">
+      <c r="H51" t="s">
         <v>176</v>
       </c>
       <c r="P51" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>294</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B52" t="s">
+        <v>503</v>
+      </c>
+      <c r="C52" t="s">
         <v>348</v>
       </c>
       <c r="E52" t="s">
         <v>277</v>
       </c>
-      <c t="s">
+      <c r="F52" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="G52" t="s">
         <v>518</v>
       </c>
-      <c t="s">
+      <c r="H52" t="s">
         <v>176</v>
       </c>
       <c r="J52" t="s">
@@ -3842,903 +3805,903 @@
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="53" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>133</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B53" t="s">
+        <v>503</v>
+      </c>
+      <c r="C53" t="s">
         <v>475</v>
       </c>
       <c r="E53" t="s">
         <v>363</v>
       </c>
-      <c t="s">
+      <c r="F53" t="s">
         <v>187</v>
       </c>
-      <c t="s">
+      <c r="G53" t="s">
         <v>421</v>
       </c>
-      <c t="s">
+      <c r="H53" t="s">
         <v>176</v>
       </c>
       <c r="J53" t="s">
         <v>225</v>
       </c>
-      <c t="s">
+      <c r="K53" t="s">
         <v>152</v>
       </c>
-      <c s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>122</v>
       </c>
-      <c t="s">
+      <c r="M53" t="s">
         <v>411</v>
       </c>
-      <c t="s">
+      <c r="N53" t="s">
         <v>321</v>
       </c>
       <c r="P53" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="54" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>314</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B54" t="s">
+        <v>503</v>
+      </c>
+      <c r="C54" t="s">
         <v>161</v>
       </c>
       <c r="E54" t="s">
         <v>280</v>
       </c>
-      <c t="s">
+      <c r="F54" t="s">
         <v>187</v>
       </c>
-      <c t="s">
+      <c r="G54" t="s">
         <v>421</v>
       </c>
-      <c t="s">
+      <c r="H54" t="s">
         <v>176</v>
       </c>
       <c r="J54" t="s">
         <v>185</v>
       </c>
-      <c t="s">
+      <c r="K54" t="s">
         <v>78</v>
       </c>
-      <c s="1" t="s">
+      <c r="L54" s="1" t="s">
         <v>122</v>
       </c>
-      <c t="s">
+      <c r="M54" t="s">
         <v>411</v>
       </c>
-      <c t="s">
+      <c r="N54" t="s">
         <v>321</v>
       </c>
       <c r="P54" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="55" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>458</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B55" t="s">
+        <v>503</v>
+      </c>
+      <c r="C55" t="s">
         <v>432</v>
       </c>
       <c r="E55" t="s">
         <v>121</v>
       </c>
-      <c t="s">
+      <c r="F55" t="s">
         <v>187</v>
       </c>
-      <c t="s">
+      <c r="G55" t="s">
         <v>421</v>
       </c>
-      <c t="s">
+      <c r="H55" t="s">
         <v>176</v>
       </c>
       <c r="J55" t="s">
         <v>225</v>
       </c>
-      <c t="s">
+      <c r="K55" t="s">
         <v>78</v>
       </c>
-      <c s="1" t="s">
+      <c r="L55" s="1" t="s">
         <v>122</v>
       </c>
-      <c t="s">
+      <c r="M55" t="s">
         <v>411</v>
       </c>
-      <c t="s">
+      <c r="N55" t="s">
         <v>321</v>
       </c>
       <c r="P55" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="56" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>149</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B56" t="s">
+        <v>503</v>
+      </c>
+      <c r="C56" t="s">
         <v>310</v>
       </c>
-      <c t="s">
+      <c r="D56" t="s">
         <v>508</v>
       </c>
-      <c t="s">
+      <c r="E56" t="s">
         <v>102</v>
       </c>
-      <c t="s">
+      <c r="F56" t="s">
         <v>436</v>
       </c>
-      <c t="s">
+      <c r="G56" t="s">
         <v>123</v>
       </c>
-      <c t="s">
+      <c r="H56" t="s">
         <v>176</v>
       </c>
       <c r="J56" t="s">
         <v>185</v>
       </c>
-      <c s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>349</v>
       </c>
-      <c s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>52</v>
       </c>
-      <c s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>188</v>
       </c>
       <c r="P56" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>264</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B57" t="s">
+        <v>503</v>
+      </c>
+      <c r="C57" t="s">
         <v>481</v>
       </c>
       <c r="E57" t="s">
         <v>150</v>
       </c>
-      <c t="s">
+      <c r="F57" t="s">
         <v>428</v>
       </c>
-      <c t="s">
+      <c r="G57" t="s">
         <v>398</v>
       </c>
-      <c t="s">
+      <c r="H57" t="s">
         <v>176</v>
       </c>
       <c r="P57" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>106</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B58" t="s">
+        <v>503</v>
+      </c>
+      <c r="C58" t="s">
         <v>270</v>
       </c>
       <c r="E58" t="s">
         <v>3</v>
       </c>
-      <c t="s">
+      <c r="F58" t="s">
         <v>394</v>
       </c>
-      <c t="s">
+      <c r="G58" t="s">
         <v>77</v>
       </c>
-      <c t="s">
+      <c r="H58" t="s">
         <v>176</v>
       </c>
       <c r="K58" t="s">
         <v>36</v>
       </c>
-      <c t="s">
+      <c r="L58" t="s">
         <v>374</v>
       </c>
-      <c t="s">
+      <c r="M58" t="s">
         <v>174</v>
       </c>
-      <c t="s">
+      <c r="N58" t="s">
         <v>347</v>
       </c>
       <c r="P58" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>482</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B59" t="s">
+        <v>503</v>
+      </c>
+      <c r="C59" t="s">
         <v>531</v>
       </c>
       <c r="E59" t="s">
         <v>221</v>
       </c>
-      <c t="s">
+      <c r="F59" t="s">
         <v>404</v>
       </c>
-      <c t="s">
+      <c r="G59" t="s">
         <v>77</v>
       </c>
-      <c t="s">
+      <c r="H59" t="s">
         <v>176</v>
       </c>
       <c r="K59" t="s">
         <v>36</v>
       </c>
-      <c t="s">
+      <c r="L59" t="s">
         <v>374</v>
       </c>
-      <c t="s">
+      <c r="M59" t="s">
         <v>174</v>
       </c>
-      <c t="s">
+      <c r="N59" t="s">
         <v>347</v>
       </c>
       <c r="P59" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="60" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>11</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B60" t="s">
+        <v>503</v>
+      </c>
+      <c r="C60" t="s">
         <v>140</v>
       </c>
       <c r="E60" t="s">
         <v>68</v>
       </c>
-      <c t="s">
+      <c r="F60" t="s">
         <v>313</v>
       </c>
-      <c t="s">
+      <c r="G60" t="s">
         <v>434</v>
       </c>
-      <c t="s">
+      <c r="H60" t="s">
         <v>176</v>
       </c>
       <c r="J60" t="s">
         <v>185</v>
       </c>
-      <c s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>87</v>
       </c>
-      <c t="s">
+      <c r="L60" t="s">
         <v>395</v>
       </c>
-      <c t="s">
+      <c r="M60" t="s">
         <v>366</v>
       </c>
       <c r="P60" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="61" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>58</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B61" t="s">
+        <v>503</v>
+      </c>
+      <c r="C61" t="s">
         <v>91</v>
       </c>
       <c r="E61" t="s">
         <v>68</v>
       </c>
-      <c t="s">
+      <c r="F61" t="s">
         <v>313</v>
       </c>
-      <c t="s">
+      <c r="G61" t="s">
         <v>434</v>
       </c>
-      <c t="s">
+      <c r="H61" t="s">
         <v>176</v>
       </c>
       <c r="J61" t="s">
         <v>185</v>
       </c>
-      <c s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>87</v>
       </c>
-      <c t="s">
+      <c r="L61" t="s">
         <v>395</v>
       </c>
-      <c t="s">
+      <c r="M61" t="s">
         <v>366</v>
       </c>
       <c r="P61" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="62" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>211</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B62" t="s">
+        <v>503</v>
+      </c>
+      <c r="C62" t="s">
         <v>160</v>
       </c>
       <c r="E62" t="s">
         <v>68</v>
       </c>
-      <c t="s">
+      <c r="F62" t="s">
         <v>313</v>
       </c>
-      <c t="s">
+      <c r="G62" t="s">
         <v>434</v>
       </c>
-      <c t="s">
+      <c r="H62" t="s">
         <v>176</v>
       </c>
       <c r="J62" t="s">
         <v>185</v>
       </c>
-      <c s="1" t="s">
+      <c r="K62" s="1" t="s">
         <v>87</v>
       </c>
-      <c t="s">
+      <c r="L62" t="s">
         <v>395</v>
       </c>
-      <c t="s">
+      <c r="M62" t="s">
         <v>366</v>
       </c>
       <c r="P62" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="63" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>414</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B63" t="s">
+        <v>503</v>
+      </c>
+      <c r="C63" t="s">
         <v>7</v>
       </c>
       <c r="E63" t="s">
         <v>489</v>
       </c>
-      <c t="s">
+      <c r="F63" t="s">
         <v>199</v>
       </c>
-      <c t="s">
+      <c r="G63" t="s">
         <v>434</v>
       </c>
-      <c t="s">
+      <c r="H63" t="s">
         <v>176</v>
       </c>
       <c r="J63" t="s">
         <v>185</v>
       </c>
-      <c s="1" t="s">
+      <c r="K63" s="1" t="s">
         <v>381</v>
       </c>
-      <c t="s">
+      <c r="L63" t="s">
         <v>395</v>
       </c>
-      <c t="s">
+      <c r="M63" t="s">
         <v>366</v>
       </c>
       <c r="P63" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="64" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>292</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B64" t="s">
+        <v>503</v>
+      </c>
+      <c r="C64" t="s">
         <v>485</v>
       </c>
       <c r="E64" t="s">
         <v>397</v>
       </c>
-      <c t="s">
+      <c r="F64" t="s">
         <v>313</v>
       </c>
-      <c t="s">
+      <c r="G64" t="s">
         <v>434</v>
       </c>
-      <c t="s">
+      <c r="H64" t="s">
         <v>176</v>
       </c>
       <c r="J64" t="s">
         <v>185</v>
       </c>
-      <c s="1" t="s">
+      <c r="K64" s="1" t="s">
         <v>459</v>
       </c>
-      <c t="s">
+      <c r="L64" t="s">
         <v>519</v>
       </c>
       <c r="P64" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="65" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>4</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B65" t="s">
+        <v>503</v>
+      </c>
+      <c r="C65" t="s">
         <v>438</v>
       </c>
       <c r="E65" t="s">
         <v>250</v>
       </c>
-      <c t="s">
+      <c r="F65" t="s">
         <v>313</v>
       </c>
-      <c t="s">
+      <c r="G65" t="s">
         <v>434</v>
       </c>
-      <c t="s">
+      <c r="H65" t="s">
         <v>176</v>
       </c>
       <c r="J65" t="s">
         <v>185</v>
       </c>
-      <c s="1" t="s">
+      <c r="K65" s="1" t="s">
         <v>163</v>
       </c>
-      <c t="s">
+      <c r="L65" t="s">
         <v>519</v>
       </c>
       <c r="P65" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="66" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>499</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B66" t="s">
+        <v>503</v>
+      </c>
+      <c r="C66" t="s">
         <v>238</v>
       </c>
       <c r="E66" t="s">
         <v>489</v>
       </c>
-      <c t="s">
+      <c r="F66" t="s">
         <v>199</v>
       </c>
-      <c t="s">
+      <c r="G66" t="s">
         <v>434</v>
       </c>
-      <c t="s">
+      <c r="H66" t="s">
         <v>176</v>
       </c>
       <c r="J66" t="s">
         <v>185</v>
       </c>
-      <c s="1" t="s">
+      <c r="K66" s="1" t="s">
         <v>456</v>
       </c>
-      <c t="s">
+      <c r="L66" t="s">
         <v>395</v>
       </c>
-      <c t="s">
+      <c r="M66" t="s">
         <v>366</v>
       </c>
       <c r="P66" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="67" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>103</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B67" t="s">
+        <v>503</v>
+      </c>
+      <c r="C67" t="s">
         <v>41</v>
       </c>
       <c r="E67" t="s">
         <v>489</v>
       </c>
-      <c t="s">
+      <c r="F67" t="s">
         <v>199</v>
       </c>
-      <c t="s">
+      <c r="G67" t="s">
         <v>434</v>
       </c>
-      <c t="s">
+      <c r="H67" t="s">
         <v>176</v>
       </c>
       <c r="J67" t="s">
         <v>185</v>
       </c>
-      <c s="1" t="s">
+      <c r="K67" s="1" t="s">
         <v>381</v>
       </c>
-      <c t="s">
+      <c r="L67" t="s">
         <v>395</v>
       </c>
-      <c t="s">
+      <c r="M67" t="s">
         <v>366</v>
       </c>
       <c r="P67" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="68" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>365</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B68" t="s">
+        <v>503</v>
+      </c>
+      <c r="C68" t="s">
         <v>273</v>
       </c>
       <c r="E68" t="s">
         <v>300</v>
       </c>
-      <c t="s">
+      <c r="F68" t="s">
         <v>199</v>
       </c>
-      <c t="s">
+      <c r="G68" t="s">
         <v>434</v>
       </c>
-      <c t="s">
+      <c r="H68" t="s">
         <v>176</v>
       </c>
       <c r="J68" t="s">
         <v>185</v>
       </c>
-      <c s="1" t="s">
+      <c r="K68" s="1" t="s">
         <v>307</v>
       </c>
-      <c t="s">
+      <c r="L68" t="s">
         <v>395</v>
       </c>
-      <c t="s">
+      <c r="M68" t="s">
         <v>366</v>
       </c>
       <c r="P68" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="69" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>478</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B69" t="s">
+        <v>503</v>
+      </c>
+      <c r="C69" t="s">
         <v>145</v>
       </c>
       <c r="E69" t="s">
         <v>351</v>
       </c>
-      <c t="s">
+      <c r="F69" t="s">
         <v>313</v>
       </c>
-      <c t="s">
+      <c r="G69" t="s">
         <v>434</v>
       </c>
-      <c t="s">
+      <c r="H69" t="s">
         <v>176</v>
       </c>
       <c r="J69" t="s">
         <v>185</v>
       </c>
-      <c s="1" t="s">
+      <c r="K69" s="1" t="s">
         <v>412</v>
       </c>
-      <c t="s">
+      <c r="L69" t="s">
         <v>519</v>
       </c>
       <c r="P69" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="70" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>281</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B70" t="s">
+        <v>503</v>
+      </c>
+      <c r="C70" t="s">
         <v>486</v>
       </c>
       <c r="E70" t="s">
         <v>300</v>
       </c>
-      <c t="s">
+      <c r="F70" t="s">
         <v>199</v>
       </c>
-      <c t="s">
+      <c r="G70" t="s">
         <v>434</v>
       </c>
-      <c t="s">
+      <c r="H70" t="s">
         <v>176</v>
       </c>
       <c r="J70" t="s">
         <v>185</v>
       </c>
-      <c s="1" t="s">
+      <c r="K70" s="1" t="s">
         <v>307</v>
       </c>
-      <c t="s">
+      <c r="L70" t="s">
         <v>395</v>
       </c>
-      <c t="s">
+      <c r="M70" t="s">
         <v>366</v>
       </c>
       <c r="P70" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="71" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>437</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B71" t="s">
+        <v>503</v>
+      </c>
+      <c r="C71" t="s">
         <v>510</v>
       </c>
       <c r="E71" t="s">
         <v>300</v>
       </c>
-      <c t="s">
+      <c r="F71" t="s">
         <v>199</v>
       </c>
-      <c t="s">
+      <c r="G71" t="s">
         <v>434</v>
       </c>
-      <c t="s">
+      <c r="H71" t="s">
         <v>176</v>
       </c>
       <c r="J71" t="s">
         <v>185</v>
       </c>
-      <c s="1" t="s">
+      <c r="K71" s="1" t="s">
         <v>307</v>
       </c>
-      <c t="s">
+      <c r="L71" t="s">
         <v>395</v>
       </c>
-      <c t="s">
+      <c r="M71" t="s">
         <v>366</v>
       </c>
       <c r="P71" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="72" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>303</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B72" t="s">
+        <v>503</v>
+      </c>
+      <c r="C72" t="s">
         <v>299</v>
       </c>
       <c r="E72" t="s">
         <v>490</v>
       </c>
-      <c t="s">
+      <c r="F72" t="s">
         <v>199</v>
       </c>
-      <c t="s">
+      <c r="G72" t="s">
         <v>434</v>
       </c>
-      <c t="s">
+      <c r="H72" t="s">
         <v>176</v>
       </c>
       <c r="J72" t="s">
         <v>185</v>
       </c>
-      <c s="1" t="s">
+      <c r="K72" s="1" t="s">
         <v>445</v>
       </c>
-      <c t="s">
+      <c r="L72" t="s">
         <v>395</v>
       </c>
-      <c t="s">
+      <c r="M72" t="s">
         <v>366</v>
       </c>
       <c r="P72" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="73" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>497</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B73" t="s">
+        <v>503</v>
+      </c>
+      <c r="C73" t="s">
         <v>23</v>
       </c>
       <c r="E73" t="s">
         <v>370</v>
       </c>
-      <c t="s">
+      <c r="F73" t="s">
         <v>199</v>
       </c>
-      <c t="s">
+      <c r="G73" t="s">
         <v>434</v>
       </c>
-      <c t="s">
+      <c r="H73" t="s">
         <v>176</v>
       </c>
       <c r="J73" t="s">
         <v>185</v>
       </c>
-      <c s="1" t="s">
+      <c r="K73" s="1" t="s">
         <v>335</v>
       </c>
-      <c t="s">
+      <c r="L73" t="s">
         <v>519</v>
       </c>
       <c r="P73" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="74" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>198</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B74" t="s">
+        <v>503</v>
+      </c>
+      <c r="C74" t="s">
         <v>92</v>
       </c>
       <c r="E74" t="s">
         <v>490</v>
       </c>
-      <c t="s">
+      <c r="F74" t="s">
         <v>199</v>
       </c>
-      <c t="s">
+      <c r="G74" t="s">
         <v>434</v>
       </c>
-      <c t="s">
+      <c r="H74" t="s">
         <v>176</v>
       </c>
       <c r="J74" t="s">
         <v>185</v>
       </c>
-      <c s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>445</v>
       </c>
-      <c t="s">
+      <c r="L74" t="s">
         <v>395</v>
       </c>
-      <c t="s">
+      <c r="M74" t="s">
         <v>366</v>
       </c>
       <c r="P74" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="75" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>369</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B75" t="s">
+        <v>503</v>
+      </c>
+      <c r="C75" t="s">
         <v>240</v>
       </c>
       <c r="E75" t="s">
         <v>490</v>
       </c>
-      <c t="s">
+      <c r="F75" t="s">
         <v>199</v>
       </c>
-      <c t="s">
+      <c r="G75" t="s">
         <v>434</v>
       </c>
-      <c t="s">
+      <c r="H75" t="s">
         <v>176</v>
       </c>
       <c r="J75" t="s">
         <v>185</v>
       </c>
-      <c s="1" t="s">
+      <c r="K75" s="1" t="s">
         <v>445</v>
       </c>
-      <c t="s">
+      <c r="L75" t="s">
         <v>395</v>
       </c>
-      <c t="s">
+      <c r="M75" t="s">
         <v>366</v>
       </c>
       <c r="P75" t="s">
         <v>377</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="76" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>88</v>
       </c>
-      <c t="s">
-        <v>503</v>
-      </c>
-      <c t="s">
+      <c r="B76" t="s">
+        <v>503</v>
+      </c>
+      <c r="C76" t="s">
         <v>471</v>
       </c>
       <c r="E76" t="s">
         <v>467</v>
       </c>
-      <c t="s">
+      <c r="F76" t="s">
         <v>187</v>
       </c>
-      <c t="s">
+      <c r="G76" t="s">
         <v>421</v>
       </c>
-      <c t="s">
+      <c r="H76" t="s">
         <v>176</v>
       </c>
       <c r="J76" t="s">
         <v>185</v>
       </c>
-      <c t="s">
+      <c r="K76" t="s">
         <v>382</v>
       </c>
-      <c s="1" t="s">
+      <c r="L76" s="1" t="s">
         <v>122</v>
       </c>
-      <c t="s">
+      <c r="M76" t="s">
         <v>108</v>
       </c>
-      <c t="s">
+      <c r="N76" t="s">
         <v>321</v>
       </c>
       <c r="P76" t="s">
@@ -4747,1709 +4710,1713 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.8125" customWidth="1"/>
-    <col min="2" max="29" width="50.8125" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="29" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row>
-      <c s="2" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>139</v>
       </c>
-      <c s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>46</v>
       </c>
-      <c s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>354</v>
       </c>
-      <c s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>104</v>
       </c>
-      <c s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>500</v>
       </c>
-      <c s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>305</v>
       </c>
-      <c s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-      <c s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>80</v>
       </c>
-      <c s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>118</v>
       </c>
-      <c s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>358</v>
       </c>
-      <c s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>156</v>
       </c>
-      <c s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>513</v>
       </c>
-      <c s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>164</v>
       </c>
-      <c s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>286</v>
       </c>
-      <c s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>235</v>
       </c>
-      <c s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>51</v>
       </c>
-      <c s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>217</v>
       </c>
-      <c s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>419</v>
       </c>
-      <c s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>450</v>
       </c>
-      <c s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>94</v>
       </c>
-      <c s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>396</v>
       </c>
-      <c s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>245</v>
       </c>
-      <c s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>453</v>
       </c>
-      <c s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>480</v>
       </c>
-      <c s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>84</v>
       </c>
-      <c s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>162</v>
       </c>
-      <c s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>389</v>
       </c>
-      <c s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>376</v>
       </c>
-      <c s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>169</v>
       </c>
-      <c s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>276</v>
       </c>
-      <c s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>341</v>
       </c>
-      <c s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>54</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>134</v>
       </c>
-      <c s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>402</v>
       </c>
-      <c s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>236</v>
       </c>
-      <c s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>362</v>
       </c>
-      <c s="2">
+      <c r="K2" s="2">
         <v>2004</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>457</v>
       </c>
-      <c s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>1</v>
       </c>
-      <c s="2">
+      <c r="O2" s="2">
         <v>2017</v>
       </c>
-      <c s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>131</v>
       </c>
-      <c s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>279</v>
       </c>
-      <c s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>523</v>
       </c>
-      <c s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>433</v>
       </c>
-      <c s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>304</v>
       </c>
-      <c s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>530</v>
       </c>
-      <c s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>202</v>
       </c>
-      <c s="2">
+      <c r="W2" s="2">
         <v>2008</v>
       </c>
-      <c s="2">
+      <c r="X2" s="2">
         <v>2002</v>
       </c>
-      <c s="2">
+      <c r="Y2" s="2">
         <v>2018</v>
       </c>
-      <c s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>415</v>
       </c>
-      <c s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>415</v>
       </c>
-      <c s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>193</v>
       </c>
-      <c s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>439</v>
       </c>
-      <c s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>463</v>
       </c>
-      <c s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>316</v>
       </c>
-      <c s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>288</v>
       </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>252</v>
       </c>
-      <c s="2">
+      <c r="H3" s="2">
         <v>2016</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>241</v>
       </c>
-      <c s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>516</v>
       </c>
-      <c s="2">
+      <c r="L3" s="2">
         <v>2021</v>
       </c>
-      <c s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>457</v>
       </c>
-      <c s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>27</v>
       </c>
-      <c s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>131</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2" t="s">
         <v>407</v>
       </c>
-      <c s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>433</v>
       </c>
-      <c s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>304</v>
       </c>
-      <c s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>101</v>
       </c>
-      <c s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>202</v>
       </c>
-      <c s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>465</v>
       </c>
-      <c s="2">
+      <c r="X3" s="2">
         <v>2013</v>
       </c>
-      <c s="2">
+      <c r="Y3" s="2">
         <v>2018</v>
       </c>
-      <c s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>12</v>
       </c>
-      <c s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>12</v>
       </c>
-      <c s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>424</v>
       </c>
-      <c s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>182</v>
       </c>
-      <c s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>215</v>
       </c>
-      <c s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>276</v>
       </c>
-      <c s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>341</v>
       </c>
-      <c s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>54</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>218</v>
       </c>
-      <c s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>402</v>
       </c>
-      <c s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>371</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>516</v>
       </c>
-      <c s="2">
+      <c r="L4" s="2">
         <v>2010</v>
       </c>
-      <c s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>457</v>
       </c>
-      <c s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>148</v>
       </c>
-      <c s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>131</v>
       </c>
-      <c s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>141</v>
       </c>
-      <c s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>523</v>
       </c>
-      <c s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>433</v>
       </c>
-      <c s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>166</v>
       </c>
-      <c s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>530</v>
       </c>
-      <c s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>202</v>
       </c>
-      <c s="2">
+      <c r="W4" s="2">
         <v>2006</v>
       </c>
-      <c s="2">
+      <c r="X4" s="2">
         <v>2013</v>
       </c>
-      <c s="2">
+      <c r="Y4" s="2">
         <v>2018</v>
       </c>
-      <c s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>326</v>
       </c>
-      <c s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>326</v>
       </c>
-      <c s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>466</v>
       </c>
-      <c s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>130</v>
       </c>
-      <c s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>387</v>
       </c>
-      <c s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>316</v>
       </c>
-      <c s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>167</v>
       </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>75</v>
       </c>
-      <c s="2">
+      <c r="H5" s="2">
         <v>2016</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
         <v>110</v>
       </c>
-      <c s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>516</v>
       </c>
-      <c s="2">
+      <c r="L5" s="2">
         <v>2015</v>
       </c>
-      <c s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>457</v>
       </c>
-      <c s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>27</v>
       </c>
-      <c s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>131</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2" t="s">
         <v>407</v>
       </c>
-      <c s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>433</v>
       </c>
-      <c s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>166</v>
       </c>
-      <c s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>28</v>
       </c>
-      <c s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>202</v>
       </c>
-      <c s="2">
+      <c r="W5" s="2">
         <v>2016</v>
       </c>
-      <c s="2">
+      <c r="X5" s="2">
         <v>2014</v>
       </c>
-      <c s="2">
+      <c r="Y5" s="2">
         <v>2018</v>
       </c>
-      <c s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>207</v>
       </c>
-      <c s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>207</v>
       </c>
-      <c s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>387</v>
       </c>
-      <c s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>179</v>
       </c>
-      <c s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>155</v>
       </c>
-      <c s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>276</v>
       </c>
-      <c s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>288</v>
       </c>
-      <c s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>54</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>287</v>
       </c>
-      <c s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>402</v>
       </c>
-      <c s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>208</v>
       </c>
-      <c s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>532</v>
       </c>
-      <c s="2">
+      <c r="K6" s="2">
         <v>2015</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
         <v>457</v>
       </c>
-      <c s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>111</v>
       </c>
-      <c s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>148</v>
       </c>
-      <c s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>131</v>
       </c>
-      <c s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>141</v>
       </c>
-      <c s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>407</v>
       </c>
-      <c s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>433</v>
       </c>
-      <c s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>304</v>
       </c>
-      <c s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>115</v>
       </c>
-      <c s="2"/>
-      <c s="2">
+      <c r="V6" s="2"/>
+      <c r="W6" s="2">
         <v>2016</v>
       </c>
-      <c s="2">
+      <c r="X6" s="2">
         <v>2007</v>
       </c>
-      <c s="2">
+      <c r="Y6" s="2">
         <v>2018</v>
       </c>
-      <c s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>203</v>
       </c>
-      <c s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>203</v>
       </c>
-      <c s="2" t="s">
+      <c r="AB6" s="2" t="s">
         <v>345</v>
       </c>
-      <c s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>502</v>
       </c>
-      <c s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>196</v>
       </c>
-      <c s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>316</v>
       </c>
-      <c s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>132</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>356</v>
       </c>
-      <c s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>298</v>
       </c>
-      <c s="2">
+      <c r="H7" s="2">
         <v>2016</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
         <v>267</v>
       </c>
-      <c s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>516</v>
       </c>
-      <c s="2">
+      <c r="L7" s="2">
         <v>2015</v>
       </c>
-      <c s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>457</v>
       </c>
-      <c s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>27</v>
       </c>
-      <c s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>131</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2" t="s">
         <v>523</v>
       </c>
-      <c s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>433</v>
       </c>
-      <c s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>166</v>
       </c>
-      <c s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>37</v>
       </c>
-      <c s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>202</v>
       </c>
-      <c s="2">
+      <c r="W7" s="2">
         <v>2010</v>
       </c>
-      <c s="2">
+      <c r="X7" s="2">
         <v>2014</v>
       </c>
-      <c s="2">
+      <c r="Y7" s="2">
         <v>2018</v>
       </c>
-      <c s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>24</v>
       </c>
-      <c s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>24</v>
       </c>
-      <c s="2" t="s">
+      <c r="AB7" s="2" t="s">
         <v>399</v>
       </c>
-      <c s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
-      <c s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>251</v>
       </c>
-      <c s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>316</v>
       </c>
-      <c s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>132</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>356</v>
       </c>
-      <c s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>298</v>
       </c>
-      <c s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>43</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
         <v>95</v>
       </c>
-      <c s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>516</v>
       </c>
-      <c s="2">
+      <c r="L8" s="2">
         <v>2015</v>
       </c>
-      <c s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>457</v>
       </c>
-      <c s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>27</v>
       </c>
-      <c s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>131</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2" t="s">
         <v>523</v>
       </c>
-      <c s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>433</v>
       </c>
-      <c s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>166</v>
       </c>
-      <c s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>37</v>
       </c>
-      <c s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>202</v>
       </c>
-      <c s="2">
+      <c r="W8" s="2">
         <v>2010</v>
       </c>
-      <c s="2">
+      <c r="X8" s="2">
         <v>2014</v>
       </c>
-      <c s="2">
+      <c r="Y8" s="2">
         <v>2018</v>
       </c>
-      <c s="2" t="s">
+      <c r="Z8" s="2" t="s">
         <v>2</v>
       </c>
-      <c s="2" t="s">
+      <c r="AA8" s="2" t="s">
         <v>2</v>
       </c>
-      <c s="2" t="s">
+      <c r="AB8" s="2" t="s">
         <v>14</v>
       </c>
-      <c s="2" t="s">
+      <c r="AC8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>190</v>
       </c>
-      <c s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>99</v>
       </c>
-      <c s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>400</v>
       </c>
-      <c s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>247</v>
       </c>
-      <c s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>54</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>237</v>
       </c>
-      <c s="2">
+      <c r="H9" s="2">
         <v>2011</v>
       </c>
-      <c s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>529</v>
       </c>
-      <c s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>89</v>
       </c>
-      <c s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>257</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="s">
         <v>457</v>
       </c>
-      <c s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>148</v>
       </c>
-      <c s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>131</v>
       </c>
-      <c s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>279</v>
       </c>
-      <c s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>407</v>
       </c>
-      <c s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>433</v>
       </c>
-      <c s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>304</v>
       </c>
-      <c s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>507</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="V9" s="2"/>
+      <c r="W9" s="2" t="s">
         <v>342</v>
       </c>
-      <c s="2">
+      <c r="X9" s="2">
         <v>2014</v>
       </c>
-      <c s="2">
+      <c r="Y9" s="2">
         <v>2018</v>
       </c>
-      <c s="2" t="s">
+      <c r="Z9" s="2" t="s">
         <v>138</v>
       </c>
-      <c s="2" t="s">
+      <c r="AA9" s="2" t="s">
         <v>138</v>
       </c>
-      <c s="2" t="s">
+      <c r="AB9" s="2" t="s">
         <v>505</v>
       </c>
-      <c s="2" t="s">
+      <c r="AC9" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>406</v>
       </c>
-      <c s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>383</v>
       </c>
-      <c s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>276</v>
       </c>
-      <c s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>288</v>
       </c>
-      <c s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>54</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>107</v>
       </c>
-      <c s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>402</v>
       </c>
-      <c s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>409</v>
       </c>
-      <c s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>63</v>
       </c>
-      <c s="2">
+      <c r="K10" s="2">
         <v>2010</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
         <v>457</v>
       </c>
-      <c s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>148</v>
       </c>
-      <c s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>131</v>
       </c>
-      <c s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>279</v>
       </c>
-      <c s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>407</v>
       </c>
-      <c s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>433</v>
       </c>
-      <c s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>304</v>
       </c>
-      <c s="2" t="s">
+      <c r="U10" s="2" t="s">
         <v>65</v>
       </c>
-      <c s="2"/>
-      <c s="2">
+      <c r="V10" s="2"/>
+      <c r="W10" s="2">
         <v>2013</v>
       </c>
-      <c s="2">
+      <c r="X10" s="2">
         <v>2013</v>
       </c>
-      <c s="2">
+      <c r="Y10" s="2">
         <v>2018</v>
       </c>
-      <c s="2" t="s">
+      <c r="Z10" s="2" t="s">
         <v>306</v>
       </c>
-      <c s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>306</v>
       </c>
-      <c s="2" t="s">
+      <c r="AB10" s="2" t="s">
         <v>290</v>
       </c>
-      <c s="2" t="s">
+      <c r="AC10" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>324</v>
       </c>
-      <c s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>343</v>
       </c>
-      <c s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>316</v>
       </c>
-      <c s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>132</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>356</v>
       </c>
-      <c s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>298</v>
       </c>
-      <c s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>359</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
         <v>71</v>
       </c>
-      <c s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>516</v>
       </c>
-      <c s="2">
+      <c r="L11" s="2">
         <v>2015</v>
       </c>
-      <c s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>457</v>
       </c>
-      <c s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>27</v>
       </c>
-      <c s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>131</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2" t="s">
         <v>523</v>
       </c>
-      <c s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>433</v>
       </c>
-      <c s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>166</v>
       </c>
-      <c s="2" t="s">
+      <c r="U11" s="2" t="s">
         <v>37</v>
       </c>
-      <c s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>202</v>
       </c>
-      <c s="2">
+      <c r="W11" s="2">
         <v>2010</v>
       </c>
-      <c s="2">
+      <c r="X11" s="2">
         <v>2014</v>
       </c>
-      <c s="2">
+      <c r="Y11" s="2">
         <v>2018</v>
       </c>
-      <c s="2" t="s">
+      <c r="Z11" s="2" t="s">
         <v>100</v>
       </c>
-      <c s="2" t="s">
+      <c r="AA11" s="2" t="s">
         <v>100</v>
       </c>
-      <c s="2" t="s">
+      <c r="AB11" s="2" t="s">
         <v>454</v>
       </c>
-      <c s="2" t="s">
+      <c r="AC11" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
-      <c s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>534</v>
       </c>
-      <c s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>316</v>
       </c>
-      <c s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>167</v>
       </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
         <v>98</v>
       </c>
-      <c s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>402</v>
       </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
         <v>516</v>
       </c>
-      <c s="2">
+      <c r="L12" s="2">
         <v>2015</v>
       </c>
-      <c s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>457</v>
       </c>
-      <c s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>27</v>
       </c>
-      <c s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>131</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2" t="s">
         <v>407</v>
       </c>
-      <c s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>433</v>
       </c>
-      <c s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>166</v>
       </c>
-      <c s="2" t="s">
+      <c r="U12" s="2" t="s">
         <v>173</v>
       </c>
-      <c s="2" t="s">
+      <c r="V12" s="2" t="s">
         <v>202</v>
       </c>
-      <c s="2">
+      <c r="W12" s="2">
         <v>2012</v>
       </c>
-      <c s="2">
+      <c r="X12" s="2">
         <v>2011</v>
       </c>
-      <c s="2">
+      <c r="Y12" s="2">
         <v>2018</v>
       </c>
-      <c s="2" t="s">
+      <c r="Z12" s="2" t="s">
         <v>441</v>
       </c>
-      <c s="2" t="s">
+      <c r="AA12" s="2" t="s">
         <v>441</v>
       </c>
-      <c s="2" t="s">
+      <c r="AB12" s="2" t="s">
         <v>275</v>
       </c>
-      <c s="2" t="s">
+      <c r="AC12" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>242</v>
       </c>
-      <c s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>316</v>
       </c>
-      <c s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>132</v>
       </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
         <v>322</v>
       </c>
-      <c s="2">
+      <c r="H13" s="2">
         <v>2011</v>
       </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
         <v>516</v>
       </c>
-      <c s="2">
+      <c r="L13" s="2">
         <v>2015</v>
       </c>
-      <c s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>457</v>
       </c>
-      <c s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>27</v>
       </c>
-      <c s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>131</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2" t="s">
         <v>407</v>
       </c>
-      <c s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>433</v>
       </c>
-      <c s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>304</v>
       </c>
-      <c s="2" t="s">
+      <c r="U13" s="2" t="s">
         <v>37</v>
       </c>
-      <c s="2" t="s">
+      <c r="V13" s="2" t="s">
         <v>202</v>
       </c>
-      <c s="2">
+      <c r="W13" s="2">
         <v>2010</v>
       </c>
-      <c s="2">
+      <c r="X13" s="2">
         <v>2013</v>
       </c>
-      <c s="2">
+      <c r="Y13" s="2">
         <v>2018</v>
       </c>
-      <c s="2" t="s">
+      <c r="Z13" s="2" t="s">
         <v>339</v>
       </c>
-      <c s="2" t="s">
+      <c r="AA13" s="2" t="s">
         <v>339</v>
       </c>
-      <c s="2" t="s">
+      <c r="AB13" s="2" t="s">
         <v>260</v>
       </c>
-      <c s="2" t="s">
+      <c r="AC13" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>477</v>
       </c>
-      <c s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>331</v>
       </c>
-      <c s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>276</v>
       </c>
-      <c s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>341</v>
       </c>
-      <c s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>54</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>119</v>
       </c>
-      <c s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>402</v>
       </c>
-      <c s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>469</v>
       </c>
-      <c s="2"/>
-      <c s="2">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2">
         <v>2013</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="s">
         <v>457</v>
       </c>
-      <c s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>27</v>
       </c>
-      <c s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>131</v>
       </c>
-      <c s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>279</v>
       </c>
-      <c s="2" t="s">
+      <c r="R14" s="2" t="s">
         <v>407</v>
       </c>
-      <c s="2" t="s">
+      <c r="S14" s="2" t="s">
         <v>433</v>
       </c>
-      <c s="2" t="s">
+      <c r="T14" s="2" t="s">
         <v>304</v>
       </c>
-      <c s="2" t="s">
+      <c r="U14" s="2" t="s">
         <v>530</v>
       </c>
-      <c s="2" t="s">
+      <c r="V14" s="2" t="s">
         <v>202</v>
       </c>
-      <c s="2">
+      <c r="W14" s="2">
         <v>2007</v>
       </c>
-      <c s="2">
+      <c r="X14" s="2">
         <v>2013</v>
       </c>
-      <c s="2">
+      <c r="Y14" s="2">
         <v>2018</v>
       </c>
-      <c s="2" t="s">
+      <c r="Z14" s="2" t="s">
         <v>33</v>
       </c>
-      <c s="2" t="s">
+      <c r="AA14" s="2" t="s">
         <v>33</v>
       </c>
-      <c s="2" t="s">
+      <c r="AB14" s="2" t="s">
         <v>504</v>
       </c>
-      <c s="2" t="s">
+      <c r="AC14" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-      <c s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>201</v>
       </c>
-      <c s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>316</v>
       </c>
-      <c s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>288</v>
       </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>442</v>
       </c>
-      <c s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>402</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
         <v>110</v>
       </c>
-      <c s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>516</v>
       </c>
-      <c s="2">
+      <c r="L15" s="2">
         <v>2015</v>
       </c>
-      <c s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>457</v>
       </c>
-      <c s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>27</v>
       </c>
-      <c s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>131</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2" t="s">
         <v>407</v>
       </c>
-      <c s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>433</v>
       </c>
-      <c s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>166</v>
       </c>
-      <c s="2" t="s">
+      <c r="U15" s="2" t="s">
         <v>364</v>
       </c>
-      <c s="2" t="s">
+      <c r="V15" s="2" t="s">
         <v>202</v>
       </c>
-      <c s="2">
+      <c r="W15" s="2">
         <v>2010</v>
       </c>
-      <c s="2">
+      <c r="X15" s="2">
         <v>2012</v>
       </c>
-      <c s="2">
+      <c r="Y15" s="2">
         <v>2018</v>
       </c>
-      <c s="2" t="s">
+      <c r="Z15" s="2" t="s">
         <v>535</v>
       </c>
-      <c s="2" t="s">
+      <c r="AA15" s="2" t="s">
         <v>535</v>
       </c>
-      <c s="2" t="s">
+      <c r="AB15" s="2" t="s">
         <v>201</v>
       </c>
-      <c s="2" t="s">
+      <c r="AC15" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>338</v>
       </c>
-      <c s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>216</v>
       </c>
-      <c s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>316</v>
       </c>
-      <c s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>288</v>
       </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>142</v>
       </c>
-      <c s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>402</v>
       </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2" t="s">
         <v>516</v>
       </c>
-      <c s="2">
+      <c r="L16" s="2">
         <v>2015</v>
       </c>
-      <c s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>457</v>
       </c>
-      <c s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>27</v>
       </c>
-      <c s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>131</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2" t="s">
         <v>407</v>
       </c>
-      <c s="2" t="s">
+      <c r="S16" s="2" t="s">
         <v>408</v>
       </c>
-      <c s="2" t="s">
+      <c r="T16" s="2" t="s">
         <v>304</v>
       </c>
-      <c s="2" t="s">
+      <c r="U16" s="2" t="s">
         <v>47</v>
       </c>
-      <c s="2" t="s">
+      <c r="V16" s="2" t="s">
         <v>202</v>
       </c>
-      <c s="2" t="s">
+      <c r="W16" s="2" t="s">
         <v>85</v>
       </c>
-      <c s="2">
+      <c r="X16" s="2">
         <v>2014</v>
       </c>
-      <c s="2">
+      <c r="Y16" s="2">
         <v>2018</v>
       </c>
-      <c s="2" t="s">
+      <c r="Z16" s="2" t="s">
         <v>386</v>
       </c>
-      <c s="2" t="s">
+      <c r="AA16" s="2" t="s">
         <v>386</v>
       </c>
-      <c s="2" t="s">
+      <c r="AB16" s="2" t="s">
         <v>153</v>
       </c>
-      <c s="2" t="s">
+      <c r="AC16" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>276</v>
       </c>
-      <c s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>132</v>
       </c>
-      <c s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>54</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
         <v>289</v>
       </c>
-      <c s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>402</v>
       </c>
-      <c s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>511</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2" t="s">
         <v>516</v>
       </c>
-      <c s="2">
+      <c r="L17" s="2">
         <v>2016</v>
       </c>
-      <c s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>457</v>
       </c>
-      <c s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>27</v>
       </c>
-      <c s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>131</v>
       </c>
-      <c s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>495</v>
       </c>
-      <c s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>407</v>
       </c>
-      <c s="2" t="s">
+      <c r="S17" s="2" t="s">
         <v>433</v>
       </c>
-      <c s="2" t="s">
+      <c r="T17" s="2" t="s">
         <v>304</v>
       </c>
-      <c s="2" t="s">
+      <c r="U17" s="2" t="s">
         <v>137</v>
       </c>
-      <c s="2" t="s">
+      <c r="V17" s="2" t="s">
         <v>202</v>
       </c>
-      <c s="2">
+      <c r="W17" s="2">
         <v>2016</v>
       </c>
-      <c s="2">
+      <c r="X17" s="2">
         <v>2014</v>
       </c>
-      <c s="2">
+      <c r="Y17" s="2">
         <v>2018</v>
       </c>
-      <c s="2" t="s">
+      <c r="Z17" s="2" t="s">
         <v>40</v>
       </c>
-      <c s="2" t="s">
+      <c r="AA17" s="2" t="s">
         <v>40</v>
       </c>
-      <c s="2" t="s">
+      <c r="AB17" s="2" t="s">
         <v>18</v>
       </c>
-      <c s="2" t="s">
+      <c r="AC17" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>344</v>
       </c>
-      <c s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>470</v>
       </c>
-      <c s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>316</v>
       </c>
-      <c s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>248</v>
       </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
         <v>224</v>
       </c>
-      <c s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>402</v>
       </c>
-      <c s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>401</v>
       </c>
-      <c s="2"/>
-      <c s="2">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2">
         <v>2010</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2" t="s">
         <v>457</v>
       </c>
-      <c s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>111</v>
       </c>
-      <c s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>66</v>
       </c>
-      <c s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>131</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2" t="s">
         <v>407</v>
       </c>
-      <c s="2" t="s">
+      <c r="S18" s="2" t="s">
         <v>408</v>
       </c>
-      <c s="2" t="s">
+      <c r="T18" s="2" t="s">
         <v>304</v>
       </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2">
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2">
         <v>2015</v>
       </c>
-      <c s="2">
+      <c r="X18" s="2">
         <v>2006</v>
       </c>
-      <c s="2">
+      <c r="Y18" s="2">
         <v>2018</v>
       </c>
-      <c s="2" t="s">
+      <c r="Z18" s="2" t="s">
         <v>117</v>
       </c>
-      <c s="2" t="s">
+      <c r="AA18" s="2" t="s">
         <v>117</v>
       </c>
-      <c s="2" t="s">
+      <c r="AB18" s="2" t="s">
         <v>422</v>
       </c>
-      <c s="2" t="s">
+      <c r="AC18" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>509</v>
       </c>
-      <c s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>276</v>
       </c>
-      <c s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>533</v>
       </c>
-      <c s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>54</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
         <v>283</v>
       </c>
-      <c s="2">
+      <c r="H19" s="2">
         <v>2011</v>
       </c>
-      <c s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>19</v>
       </c>
-      <c s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>110</v>
       </c>
-      <c s="2">
+      <c r="K19" s="2">
         <v>2015</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2" t="s">
         <v>457</v>
       </c>
-      <c s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>148</v>
       </c>
-      <c s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>131</v>
       </c>
-      <c s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>279</v>
       </c>
-      <c s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>407</v>
       </c>
-      <c s="2" t="s">
+      <c r="S19" s="2" t="s">
         <v>433</v>
       </c>
-      <c s="2" t="s">
+      <c r="T19" s="2" t="s">
         <v>304</v>
       </c>
-      <c s="2" t="s">
+      <c r="U19" s="2" t="s">
         <v>461</v>
       </c>
-      <c s="2"/>
-      <c s="2">
+      <c r="V19" s="2"/>
+      <c r="W19" s="2">
         <v>2007</v>
       </c>
-      <c s="2">
+      <c r="X19" s="2">
         <v>2010</v>
       </c>
-      <c s="2">
+      <c r="Y19" s="2">
         <v>2018</v>
       </c>
-      <c s="2" t="s">
+      <c r="Z19" s="2" t="s">
         <v>506</v>
       </c>
-      <c s="2" t="s">
+      <c r="AA19" s="2" t="s">
         <v>506</v>
       </c>
-      <c s="2" t="s">
+      <c r="AB19" s="2" t="s">
         <v>112</v>
       </c>
-      <c s="2" t="s">
+      <c r="AC19" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>328</v>
       </c>
-      <c s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>353</v>
       </c>
-      <c s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>276</v>
       </c>
-      <c s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>132</v>
       </c>
-      <c s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>54</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
         <v>31</v>
       </c>
-      <c s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>255</v>
       </c>
-      <c s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>309</v>
       </c>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="J20" s="2"/>
+      <c r="K20" s="2" t="s">
         <v>516</v>
       </c>
-      <c s="2">
+      <c r="L20" s="2">
         <v>2009</v>
       </c>
-      <c s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>457</v>
       </c>
-      <c s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>27</v>
       </c>
-      <c s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>131</v>
       </c>
-      <c s="2" t="s">
+      <c r="Q20" s="2" t="s">
         <v>279</v>
       </c>
-      <c s="2" t="s">
+      <c r="R20" s="2" t="s">
         <v>523</v>
       </c>
-      <c s="2" t="s">
+      <c r="S20" s="2" t="s">
         <v>433</v>
       </c>
-      <c s="2" t="s">
+      <c r="T20" s="2" t="s">
         <v>304</v>
       </c>
-      <c s="2" t="s">
+      <c r="U20" s="2" t="s">
         <v>282</v>
       </c>
-      <c s="2" t="s">
+      <c r="V20" s="2" t="s">
         <v>202</v>
       </c>
-      <c s="2"/>
-      <c s="2">
+      <c r="W20" s="2"/>
+      <c r="X20" s="2">
         <v>2014</v>
       </c>
-      <c s="2">
+      <c r="Y20" s="2">
         <v>2018</v>
       </c>
-      <c s="2" t="s">
+      <c r="Z20" s="2" t="s">
         <v>460</v>
       </c>
-      <c s="2" t="s">
+      <c r="AA20" s="2" t="s">
         <v>460</v>
       </c>
-      <c s="2" t="s">
+      <c r="AB20" s="2" t="s">
         <v>177</v>
       </c>
-      <c s="2" t="s">
+      <c r="AC20" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>491</v>
       </c>
-      <c s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>293</v>
       </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
         <v>219</v>
       </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2" t="s">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2" t="s">
         <v>274</v>
       </c>
-      <c s="2" t="s">
+      <c r="AA21" s="2" t="s">
         <v>274</v>
       </c>
-      <c s="2" t="s">
+      <c r="AB21" s="2" t="s">
         <v>293</v>
       </c>
-      <c s="2" t="s">
+      <c r="AC21" s="2" t="s">
         <v>293</v>
       </c>
     </row>
@@ -6459,168 +6426,168 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.8125" customWidth="1"/>
-    <col min="2" max="4" width="50.8125" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="4" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row>
-      <c s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>268</v>
       </c>
-      <c s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>514</v>
       </c>
-      <c s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>420</v>
       </c>
-      <c s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>86</v>
       </c>
-      <c s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>527</v>
       </c>
-      <c s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>86</v>
       </c>
-      <c s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>352</v>
       </c>
-      <c s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>86</v>
       </c>
-      <c s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>492</v>
       </c>
-      <c s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>206</v>
       </c>
-      <c s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>492</v>
       </c>
-      <c s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>168</v>
       </c>
-      <c s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>527</v>
       </c>
-      <c s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>168</v>
       </c>
-      <c s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>352</v>
       </c>
-      <c s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>168</v>
       </c>
-      <c s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>492</v>
       </c>
-      <c s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>191</v>
       </c>
-      <c s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>492</v>
       </c>
-      <c s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>444</v>
       </c>
-      <c s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>492</v>
       </c>
-      <c s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>262</v>
       </c>
-      <c s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>492</v>
       </c>
-      <c s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>228</v>
       </c>
     </row>
